--- a/Graficos de informes generados por Views.xlsx
+++ b/Graficos de informes generados por Views.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\CoderHouse\Curso SQL 2022\Proyecto Final MySQL Server\Proyecto Final Entregado SIN CHECKS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF8505D-1923-4F74-B402-6AB831181F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2636855-ABEA-4DEF-8A3B-23B00A070D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2CBA8CD0-A533-4396-AA1A-7992D9FA2E01}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <definedName name="_xlchart.v2.0" hidden="1">mas_vendidos!$B$6:$B$10</definedName>
     <definedName name="_xlchart.v2.1" hidden="1">mas_vendidos!$C$5</definedName>
     <definedName name="_xlchart.v2.2" hidden="1">mas_vendidos!$C$6:$C$10</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">mas_vendidos!$B$6:$B$10</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">mas_vendidos!$C$5</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">mas_vendidos!$C$6:$C$10</definedName>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">articulos_precios_altos!$B$5:$C$12</definedName>
     <definedName name="DatosExternos_1" localSheetId="1" hidden="1">'clientes_premiados'!$B$5:$D$7</definedName>
     <definedName name="DatosExternos_1" localSheetId="2" hidden="1">emplado_supremo!$B$5:$C$6</definedName>
@@ -332,16 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -353,10 +348,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -368,7 +360,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -768,7 +763,7 @@
           <cx:dataId val="0"/>
         </cx:series>
       </cx:plotAreaRegion>
-      <cx:axis id="1">
+      <cx:axis id="0">
         <cx:catScaling gapWidth="0.0599999987"/>
         <cx:tickLabels/>
       </cx:axis>
@@ -2651,11 +2646,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247912</xdr:colOff>
+      <xdr:colOff>241149</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38563</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1452129" cy="468013"/>
+    <xdr:ext cx="1465658" cy="468013"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectángulo 1">
@@ -2669,8 +2664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="567952" y="38563"/>
-          <a:ext cx="1452129" cy="468013"/>
+          <a:off x="561189" y="38563"/>
+          <a:ext cx="1465658" cy="468013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2698,7 +2693,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>GRAFICOS</a:t>
+            <a:t>Ganancias</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2846,9 +2841,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51AB4363-6B32-4F85-8E65-CFE36D22AD74}" name="clientes_premiados" displayName="clientes_premiados" ref="B5:D7" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B5:D7" xr:uid="{51AB4363-6B32-4F85-8E65-CFE36D22AD74}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2A6BE639-5C76-400C-BE44-5E6F99327957}" uniqueName="1" name="Nombre Cliente" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7ACF2DF1-995D-40CC-974F-0119FDF6C607}" uniqueName="2" name="Numero de Telefono" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7273A201-72FD-4DD6-A6F5-31774EA72A27}" uniqueName="3" name="Fecha de venta" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2A6BE639-5C76-400C-BE44-5E6F99327957}" uniqueName="1" name="Nombre Cliente" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{7ACF2DF1-995D-40CC-974F-0119FDF6C607}" uniqueName="2" name="Numero de Telefono" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7273A201-72FD-4DD6-A6F5-31774EA72A27}" uniqueName="3" name="Fecha de venta" queryTableFieldId="3" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2858,7 +2853,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCA8CD7D-6B55-4591-A271-0DEFD01ED5A2}" name="emplado_supremo" displayName="emplado_supremo" ref="B5:C6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B5:C6" xr:uid="{DCA8CD7D-6B55-4591-A271-0DEFD01ED5A2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7BB1396C-7594-4073-8F2F-1721E729A563}" uniqueName="1" name="Nombre Empleado" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7BB1396C-7594-4073-8F2F-1721E729A563}" uniqueName="1" name="Nombre Empleado" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{F0945079-D10E-4241-A33C-D03678CBD070}" uniqueName="2" name="Cantidad Ventas Supremo Vendedor" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2869,7 +2864,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CAA496BF-4CA4-4432-86C2-BB3569004F0F}" name="margen_ganancias" displayName="margen_ganancias" ref="B5:C6" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B5:C6" xr:uid="{CAA496BF-4CA4-4432-86C2-BB3569004F0F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E0FD5AFF-F884-46C9-8A71-D70D85981460}" uniqueName="1" name="Nombre del Proveedor" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{E0FD5AFF-F884-46C9-8A71-D70D85981460}" uniqueName="1" name="Nombre del Proveedor" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{541CC2A5-5810-4EB2-83B9-75E4D24CDB18}" uniqueName="2" name="Mayor margen de Ganancias" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2880,7 +2875,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A448F5CE-6C43-4ECB-A694-E15B92267F22}" name="mas_vendidos" displayName="mas_vendidos" ref="B5:C10" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B5:C10" xr:uid="{A448F5CE-6C43-4ECB-A694-E15B92267F22}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1E7C478E-73A2-49F8-A5E1-3DCA71F76510}" uniqueName="1" name="Articulo" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1E7C478E-73A2-49F8-A5E1-3DCA71F76510}" uniqueName="1" name="Articulo" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{806C3210-E082-49DD-9824-C7C320A02BD6}" uniqueName="2" name="Cantidad de productos vendidos" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2891,7 +2886,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78D96369-51E7-46E9-99D0-B07143A5CD7F}" name="view_ganancias" displayName="view_ganancias" ref="B5:F24" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B5:F24" xr:uid="{78D96369-51E7-46E9-99D0-B07143A5CD7F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C6204B45-B671-43AC-A435-334FBA97E9AB}" uniqueName="1" name="Articulo" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C6204B45-B671-43AC-A435-334FBA97E9AB}" uniqueName="1" name="Articulo" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C5F1A6CE-DFF4-44F8-8DA0-B5E8C7F4590F}" uniqueName="2" name="Precio de Compra" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{B97BCD03-DAA3-4C05-AD33-38DD43D315E1}" uniqueName="3" name="Precio de Venta" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BF1B1011-CB5A-4D7D-901C-5FC64C6E3179}" uniqueName="4" name="Ganancias" queryTableFieldId="4"/>
@@ -3212,61 +3207,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3277,7 +3272,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6">
@@ -3285,7 +3280,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -3293,7 +3288,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -3301,7 +3296,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9">
@@ -3309,7 +3304,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
@@ -3317,7 +3312,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
@@ -3325,7 +3320,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
@@ -3358,61 +3353,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3426,24 +3421,24 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>54387155000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>44364.809120370373</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>54387155000002</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>44364.767453703702</v>
       </c>
     </row>
@@ -3472,58 +3467,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3534,7 +3529,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6">
@@ -3566,58 +3561,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3628,7 +3623,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6">
@@ -3660,61 +3655,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3725,7 +3720,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
@@ -3733,7 +3728,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7">
@@ -3741,7 +3736,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -3749,7 +3744,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9">
@@ -3757,7 +3752,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10">
@@ -3778,7 +3773,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3792,58 +3787,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -3863,7 +3858,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
       </c>
       <c r="C6">
@@ -3877,7 +3872,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7">
@@ -3891,7 +3886,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8">
@@ -3905,7 +3900,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -3919,7 +3914,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10">
@@ -3933,7 +3928,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11">
@@ -3947,7 +3942,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12">
@@ -3961,7 +3956,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
       <c r="C13">
@@ -3975,7 +3970,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14">
@@ -3989,7 +3984,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15">
@@ -4003,7 +3998,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="C16">
@@ -4017,7 +4012,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
       <c r="C17">
@@ -4031,7 +4026,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18">
@@ -4045,7 +4040,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19">
@@ -4059,7 +4054,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20">
@@ -4073,7 +4068,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21">
@@ -4087,7 +4082,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22">
@@ -4101,7 +4096,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23">
@@ -4115,7 +4110,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24">
